--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q2">
-        <v>140.7895098025159</v>
+        <v>142.4788721553035</v>
       </c>
       <c r="R2">
-        <v>1267.105588222643</v>
+        <v>1282.309849397732</v>
       </c>
       <c r="S2">
-        <v>0.01196177602763524</v>
+        <v>0.0337682042049104</v>
       </c>
       <c r="T2">
-        <v>0.01196177602763524</v>
+        <v>0.0337682042049104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N3">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q3">
-        <v>558.7626443664142</v>
+        <v>814.1766670231067</v>
       </c>
       <c r="R3">
-        <v>5028.863799297727</v>
+        <v>7327.590003207961</v>
       </c>
       <c r="S3">
-        <v>0.0474736620213789</v>
+        <v>0.1929639358805538</v>
       </c>
       <c r="T3">
-        <v>0.0474736620213789</v>
+        <v>0.1929639358805537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.78643133333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>38.35929400000001</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q4">
-        <v>1623.004919464295</v>
+        <v>11.76552634890578</v>
       </c>
       <c r="R4">
-        <v>14607.04427517866</v>
+        <v>105.889737140152</v>
       </c>
       <c r="S4">
-        <v>0.1378939479625573</v>
+        <v>0.002788488498807333</v>
       </c>
       <c r="T4">
-        <v>0.1378939479625573</v>
+        <v>0.002788488498807332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.3944216666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>457.1832650000001</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.2369137948193439</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.2369137948193439</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109174333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N5">
-        <v>3.327523</v>
+        <v>5.127454</v>
       </c>
       <c r="O5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q5">
-        <v>169.0319810558439</v>
+        <v>219.5488544927262</v>
       </c>
       <c r="R5">
-        <v>1521.287829502595</v>
+        <v>1975.939690434536</v>
       </c>
       <c r="S5">
-        <v>0.01436131642004877</v>
+        <v>0.05203417488723134</v>
       </c>
       <c r="T5">
-        <v>0.01436131642004877</v>
+        <v>0.05203417488723133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,43 +791,43 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H6">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I6">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J6">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.402069333333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N6">
-        <v>13.206208</v>
+        <v>3.327523</v>
       </c>
       <c r="O6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q6">
-        <v>670.8508101899023</v>
+        <v>169.0319810558439</v>
       </c>
       <c r="R6">
-        <v>6037.657291709121</v>
+        <v>1521.287829502595</v>
       </c>
       <c r="S6">
-        <v>0.05699691085440414</v>
+        <v>0.04006142361396994</v>
       </c>
       <c r="T6">
-        <v>0.05699691085440414</v>
+        <v>0.04006142361396994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.78643133333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N7">
-        <v>38.35929400000001</v>
+        <v>19.01469</v>
       </c>
       <c r="O7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q7">
-        <v>1948.580808223879</v>
+        <v>965.9108952403167</v>
       </c>
       <c r="R7">
-        <v>17537.22727401492</v>
+        <v>8693.19805716285</v>
       </c>
       <c r="S7">
-        <v>0.165555567544891</v>
+        <v>0.2289257056910856</v>
       </c>
       <c r="T7">
-        <v>0.165555567544891</v>
+        <v>0.2289257056910856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>206.573929</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>619.7217870000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.321141764212203</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.321141764212203</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.109174333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N8">
-        <v>3.327523</v>
+        <v>0.274778</v>
       </c>
       <c r="O8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q8">
-        <v>229.1264999826223</v>
+        <v>13.95821146557444</v>
       </c>
       <c r="R8">
-        <v>2062.138499843601</v>
+        <v>125.62390319017</v>
       </c>
       <c r="S8">
-        <v>0.0194670744903689</v>
+        <v>0.003308165821182734</v>
       </c>
       <c r="T8">
-        <v>0.0194670744903689</v>
+        <v>0.003308165821182734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>206.573929</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>619.7217870000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.321141764212203</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.321141764212203</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.402069333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N9">
-        <v>13.206208</v>
+        <v>5.127454</v>
       </c>
       <c r="O9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q9">
-        <v>909.3527579170774</v>
+        <v>260.4651289841456</v>
       </c>
       <c r="R9">
-        <v>8184.174821253697</v>
+        <v>2344.18616085731</v>
       </c>
       <c r="S9">
-        <v>0.07726054331444313</v>
+        <v>0.06173153626741114</v>
       </c>
       <c r="T9">
-        <v>0.07726054331444311</v>
+        <v>0.06173153626741112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H10">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I10">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J10">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>12.78643133333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N10">
-        <v>38.35929400000001</v>
+        <v>3.327523</v>
       </c>
       <c r="O10">
-        <v>0.6988008767962779</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P10">
-        <v>0.6988008767962779</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q10">
-        <v>2641.343358415376</v>
+        <v>78.52749859170366</v>
       </c>
       <c r="R10">
-        <v>23772.09022573838</v>
+        <v>706.7474873253329</v>
       </c>
       <c r="S10">
-        <v>0.224414146407391</v>
+        <v>0.01861140931305973</v>
       </c>
       <c r="T10">
-        <v>0.224414146407391</v>
+        <v>0.01861140931305973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.57379533333333</v>
+        <v>70.798157</v>
       </c>
       <c r="H11">
-        <v>46.721386</v>
+        <v>212.394471</v>
       </c>
       <c r="I11">
-        <v>0.02421116804544315</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J11">
-        <v>0.02421116804544314</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.109174333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N11">
-        <v>3.327523</v>
+        <v>19.01469</v>
       </c>
       <c r="O11">
-        <v>0.06061832081580491</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P11">
-        <v>0.06061832081580491</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q11">
-        <v>17.27405405631978</v>
+        <v>448.73500264211</v>
       </c>
       <c r="R11">
-        <v>155.466486506878</v>
+        <v>4038.615023778991</v>
       </c>
       <c r="S11">
-        <v>0.001467640351904037</v>
+        <v>0.1063524364973417</v>
       </c>
       <c r="T11">
-        <v>0.001467640351904037</v>
+        <v>0.1063524364973416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.57379533333333</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>46.721386</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.02421116804544315</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.02421116804544314</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>4.402069333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N12">
-        <v>13.206208</v>
+        <v>0.274778</v>
       </c>
       <c r="O12">
-        <v>0.2405808023879172</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P12">
-        <v>0.2405808023879172</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q12">
-        <v>68.55692684047645</v>
+        <v>6.484591994715334</v>
       </c>
       <c r="R12">
-        <v>617.012341564288</v>
+        <v>58.36132795243801</v>
       </c>
       <c r="S12">
-        <v>0.005824742235121414</v>
+        <v>0.001536880685189532</v>
       </c>
       <c r="T12">
-        <v>0.005824742235121412</v>
+        <v>0.001536880685189532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.57379533333333</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>46.721386</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.02421116804544315</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.02421116804544314</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.78643133333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N13">
-        <v>38.35929400000001</v>
+        <v>5.127454</v>
       </c>
       <c r="O13">
-        <v>0.6988008767962779</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P13">
-        <v>0.6988008767962779</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q13">
-        <v>199.1332646290538</v>
+        <v>121.0047644340927</v>
       </c>
       <c r="R13">
-        <v>1792.199381661484</v>
+        <v>1089.042879906834</v>
       </c>
       <c r="S13">
-        <v>0.0169187854584177</v>
+        <v>0.02867873343862248</v>
       </c>
       <c r="T13">
-        <v>0.01691878545841769</v>
+        <v>0.02867873343862248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>141.7744496666667</v>
+        <v>20.703408</v>
       </c>
       <c r="H14">
-        <v>425.323349</v>
+        <v>62.110224</v>
       </c>
       <c r="I14">
-        <v>0.2204038869114384</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J14">
-        <v>0.2204038869114384</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,27 +1308,27 @@
         <v>3.327523</v>
       </c>
       <c r="O14">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P14">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q14">
-        <v>157.2525806927252</v>
+        <v>22.963688766128</v>
       </c>
       <c r="R14">
-        <v>1415.273226234527</v>
+        <v>206.673198895152</v>
       </c>
       <c r="S14">
-        <v>0.01336051352584796</v>
+        <v>0.005442508912531089</v>
       </c>
       <c r="T14">
-        <v>0.01336051352584796</v>
+        <v>0.005442508912531089</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>141.7744496666667</v>
+        <v>20.703408</v>
       </c>
       <c r="H15">
-        <v>425.323349</v>
+        <v>62.110224</v>
       </c>
       <c r="I15">
-        <v>0.2204038869114384</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J15">
-        <v>0.2204038869114384</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N15">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O15">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P15">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q15">
-        <v>624.1009571278436</v>
+        <v>131.22296168784</v>
       </c>
       <c r="R15">
-        <v>5616.908614150592</v>
+        <v>1181.00665519056</v>
       </c>
       <c r="S15">
-        <v>0.05302494396256963</v>
+        <v>0.03110049721490003</v>
       </c>
       <c r="T15">
-        <v>0.05302494396256961</v>
+        <v>0.03110049721490003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.703408</v>
+      </c>
+      <c r="H16">
+        <v>62.110224</v>
+      </c>
+      <c r="I16">
+        <v>0.04537891674549766</v>
+      </c>
+      <c r="J16">
+        <v>0.04537891674549767</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.274778</v>
+      </c>
+      <c r="O16">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P16">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q16">
+        <v>1.896280347808</v>
+      </c>
+      <c r="R16">
+        <v>17.066523130272</v>
+      </c>
+      <c r="S16">
+        <v>0.000449427911983619</v>
+      </c>
+      <c r="T16">
+        <v>0.000449427911983619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>20.703408</v>
+      </c>
+      <c r="H17">
+        <v>62.110224</v>
+      </c>
+      <c r="I17">
+        <v>0.04537891674549766</v>
+      </c>
+      <c r="J17">
+        <v>0.04537891674549767</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.127454</v>
+      </c>
+      <c r="O17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q17">
+        <v>35.38525738774401</v>
+      </c>
+      <c r="R17">
+        <v>318.467316489696</v>
+      </c>
+      <c r="S17">
+        <v>0.008386482706082929</v>
+      </c>
+      <c r="T17">
+        <v>0.008386482706082929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>141.7744496666667</v>
-      </c>
-      <c r="H16">
-        <v>425.323349</v>
-      </c>
-      <c r="I16">
-        <v>0.2204038869114384</v>
-      </c>
-      <c r="J16">
-        <v>0.2204038869114384</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.78643133333333</v>
-      </c>
-      <c r="N16">
-        <v>38.35929400000001</v>
-      </c>
-      <c r="O16">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="P16">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="Q16">
-        <v>1812.789265483956</v>
-      </c>
-      <c r="R16">
-        <v>16315.10338935561</v>
-      </c>
-      <c r="S16">
-        <v>0.1540184294230209</v>
-      </c>
-      <c r="T16">
-        <v>0.1540184294230209</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.88319133333333</v>
+      </c>
+      <c r="H18">
+        <v>251.649574</v>
+      </c>
+      <c r="I18">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="J18">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.327523</v>
+      </c>
+      <c r="O18">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="P18">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="Q18">
+        <v>93.04108282502243</v>
+      </c>
+      <c r="R18">
+        <v>837.3697454252019</v>
+      </c>
+      <c r="S18">
+        <v>0.02205120125359155</v>
+      </c>
+      <c r="T18">
+        <v>0.02205120125359154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.88319133333333</v>
+      </c>
+      <c r="H19">
+        <v>251.649574</v>
+      </c>
+      <c r="I19">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="J19">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.33823</v>
+      </c>
+      <c r="N19">
+        <v>19.01469</v>
+      </c>
+      <c r="O19">
+        <v>0.6853512477903235</v>
+      </c>
+      <c r="P19">
+        <v>0.6853512477903234</v>
+      </c>
+      <c r="Q19">
+        <v>531.6709598046733</v>
+      </c>
+      <c r="R19">
+        <v>4785.03863824206</v>
+      </c>
+      <c r="S19">
+        <v>0.1260086725064424</v>
+      </c>
+      <c r="T19">
+        <v>0.1260086725064424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.88319133333333</v>
+      </c>
+      <c r="H20">
+        <v>251.649574</v>
+      </c>
+      <c r="I20">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="J20">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.274778</v>
+      </c>
+      <c r="O20">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P20">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q20">
+        <v>7.683085182730222</v>
+      </c>
+      <c r="R20">
+        <v>69.147766644572</v>
+      </c>
+      <c r="S20">
+        <v>0.0018209295557264</v>
+      </c>
+      <c r="T20">
+        <v>0.0018209295557264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.88319133333333</v>
+      </c>
+      <c r="H21">
+        <v>251.649574</v>
+      </c>
+      <c r="I21">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="J21">
+        <v>0.1838599884551367</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.127454</v>
+      </c>
+      <c r="O21">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P21">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q21">
+        <v>143.3690683116218</v>
+      </c>
+      <c r="R21">
+        <v>1290.321614804596</v>
+      </c>
+      <c r="S21">
+        <v>0.03397918513937635</v>
+      </c>
+      <c r="T21">
+        <v>0.03397918513937635</v>
       </c>
     </row>
   </sheetData>
